--- a/prueba5_excel.xlsx
+++ b/prueba5_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enkro\Automatizacion_DiagramasDeFlujo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F94CDA-91BB-4C82-B633-EAAAF55346E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6995D013-2219-4CCD-BF54-9832621CE3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30540" yWindow="1800" windowWidth="21600" windowHeight="12810" xr2:uid="{A51B9455-0DA1-4262-9C8D-5E63C3C80935}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A51B9455-0DA1-4262-9C8D-5E63C3C80935}"/>
   </bookViews>
   <sheets>
     <sheet name="diagrama1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>Elemento1</t>
   </si>
@@ -57,24 +57,6 @@
   </si>
   <si>
     <t>Elemento4</t>
-  </si>
-  <si>
-    <t>Manguera4</t>
-  </si>
-  <si>
-    <t>Elemento5</t>
-  </si>
-  <si>
-    <t>Manguera5</t>
-  </si>
-  <si>
-    <t>Elemento6</t>
-  </si>
-  <si>
-    <t>Manguera6</t>
-  </si>
-  <si>
-    <t>Elemento7</t>
   </si>
   <si>
     <t>Elem1</t>
@@ -505,15 +487,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4692FC6F-E8B7-42EA-917E-25410140FE65}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,51 +518,85 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
+      <c r="K4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F6" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K9" s="3"/>
     </row>
   </sheetData>

--- a/prueba5_excel.xlsx
+++ b/prueba5_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enkro\Automatizacion_DiagramasDeFlujo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6995D013-2219-4CCD-BF54-9832621CE3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1737B8-D03B-463F-9A03-ED9ED9C11095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A51B9455-0DA1-4262-9C8D-5E63C3C80935}"/>
+    <workbookView xWindow="2004" yWindow="2100" windowWidth="28668" windowHeight="12168" xr2:uid="{A51B9455-0DA1-4262-9C8D-5E63C3C80935}"/>
   </bookViews>
   <sheets>
     <sheet name="diagrama1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Elemento1</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>Mang3</t>
+  </si>
+  <si>
+    <t>Manguera4</t>
+  </si>
+  <si>
+    <t>Elemento5</t>
+  </si>
+  <si>
+    <t>Mang5</t>
+  </si>
+  <si>
+    <t>Elem6</t>
   </si>
 </sst>
 </file>
@@ -490,7 +502,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:K4"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,16 +593,16 @@
         <v>6</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">

--- a/prueba5_excel.xlsx
+++ b/prueba5_excel.xlsx
@@ -615,4 +615,276 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005CCE8C70ADE6FD4DB948CF3BFC52CAB6" ma:contentTypeVersion="18" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d0d6baa5fddc89d1005b112fecbf2377">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4578e3cf-dc59-46b9-b473-9d64d86ba65a" xmlns:ns3="565c94a9-9f9d-407f-a547-016888b2b680" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d27b4b9bbf274307dd4fa983c05e6fa" ns2:_="" ns3:_="">
+    <xsd:import namespace="4578e3cf-dc59-46b9-b473-9d64d86ba65a"/>
+    <xsd:import namespace="565c94a9-9f9d-407f-a547-016888b2b680"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4578e3cf-dc59-46b9-b473-9d64d86ba65a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="554265b4-540b-40ef-96c8-1650e5c6003f" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="23" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="565c94a9-9f9d-407f-a547-016888b2b680" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="15" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="16" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{08218340-d62d-4f8b-b7a8-8d328845d854}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="565c94a9-9f9d-407f-a547-016888b2b680">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845E6CD6-41F1-467B-BEAF-28FF031A1554}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D297736C-B56D-4755-88CF-1B2FF5BC0647}"/>
 </file>
--- a/prueba5_excel.xlsx
+++ b/prueba5_excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enkro\Automatizacion_DiagramasDeFlujo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enkross.sharepoint.com/sites/ENKROSSCloud/Proyectos/P00106-ENKROSS (INTERNO 2024)/03_Ingeniería/Desarrollo unifilares/P00106-ENKROSS_PRUEBA3_AUTOMATIZACION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1737B8-D03B-463F-9A03-ED9ED9C11095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{8A1737B8-D03B-463F-9A03-ED9ED9C11095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB0FE3C0-F608-4AD3-BA78-828A5E27177C}"/>
   <bookViews>
-    <workbookView xWindow="2004" yWindow="2100" windowWidth="28668" windowHeight="12168" xr2:uid="{A51B9455-0DA1-4262-9C8D-5E63C3C80935}"/>
+    <workbookView minimized="1" xWindow="372" yWindow="1992" windowWidth="28668" windowHeight="14568" xr2:uid="{A51B9455-0DA1-4262-9C8D-5E63C3C80935}"/>
   </bookViews>
   <sheets>
     <sheet name="diagrama1" sheetId="1" r:id="rId1"/>
@@ -180,6 +180,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -502,7 +506,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,10 +534,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -882,9 +886,28 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845E6CD6-41F1-467B-BEAF-28FF031A1554}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845E6CD6-41F1-467B-BEAF-28FF031A1554}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4578e3cf-dc59-46b9-b473-9d64d86ba65a"/>
+    <ds:schemaRef ds:uri="565c94a9-9f9d-407f-a547-016888b2b680"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D297736C-B56D-4755-88CF-1B2FF5BC0647}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D297736C-B56D-4755-88CF-1B2FF5BC0647}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/prueba5_excel.xlsx
+++ b/prueba5_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enkross.sharepoint.com/sites/ENKROSSCloud/Proyectos/P00106-ENKROSS (INTERNO 2024)/03_Ingeniería/Desarrollo unifilares/P00106-ENKROSS_PRUEBA3_AUTOMATIZACION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{8A1737B8-D03B-463F-9A03-ED9ED9C11095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB0FE3C0-F608-4AD3-BA78-828A5E27177C}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{8A1737B8-D03B-463F-9A03-ED9ED9C11095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C409184-9836-4F1B-B6C5-D0A74168FDA2}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="372" yWindow="1992" windowWidth="28668" windowHeight="14568" xr2:uid="{A51B9455-0DA1-4262-9C8D-5E63C3C80935}"/>
+    <workbookView xWindow="372" yWindow="1992" windowWidth="28668" windowHeight="14568" xr2:uid="{A51B9455-0DA1-4262-9C8D-5E63C3C80935}"/>
   </bookViews>
   <sheets>
     <sheet name="diagrama1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>Elemento1</t>
   </si>
@@ -90,6 +90,48 @@
   </si>
   <si>
     <t>Elem6</t>
+  </si>
+  <si>
+    <t>Mang6</t>
+  </si>
+  <si>
+    <t>Elem7</t>
+  </si>
+  <si>
+    <t>Mang7</t>
+  </si>
+  <si>
+    <t>Elem8</t>
+  </si>
+  <si>
+    <t>Mang8</t>
+  </si>
+  <si>
+    <t>Elem9</t>
+  </si>
+  <si>
+    <t>Mang9</t>
+  </si>
+  <si>
+    <t>Elem10</t>
+  </si>
+  <si>
+    <t>Mang10</t>
+  </si>
+  <si>
+    <t>Elem11</t>
+  </si>
+  <si>
+    <t>Mang11</t>
+  </si>
+  <si>
+    <t>Elem12</t>
+  </si>
+  <si>
+    <t>Mang12</t>
+  </si>
+  <si>
+    <t>Elem13</t>
   </si>
 </sst>
 </file>
@@ -154,7 +196,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -163,6 +205,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -503,15 +548,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4692FC6F-E8B7-42EA-917E-25410140FE65}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -563,7 +608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -574,7 +619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,12 +653,95 @@
       <c r="K4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="L4" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="F6" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="K9" s="3"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="J13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/prueba5_excel.xlsx
+++ b/prueba5_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enkross.sharepoint.com/sites/ENKROSSCloud/Proyectos/P00106-ENKROSS (INTERNO 2024)/03_Ingeniería/Desarrollo unifilares/P00106-ENKROSS_PRUEBA3_AUTOMATIZACION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{8A1737B8-D03B-463F-9A03-ED9ED9C11095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C409184-9836-4F1B-B6C5-D0A74168FDA2}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{8A1737B8-D03B-463F-9A03-ED9ED9C11095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9752F83B-650F-4784-ACDF-C93CF4091318}"/>
   <bookViews>
     <workbookView xWindow="372" yWindow="1992" windowWidth="28668" windowHeight="14568" xr2:uid="{A51B9455-0DA1-4262-9C8D-5E63C3C80935}"/>
   </bookViews>
@@ -36,28 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
-  <si>
-    <t>Elemento1</t>
-  </si>
-  <si>
-    <t>Elemento2</t>
-  </si>
-  <si>
-    <t>Elemento3</t>
-  </si>
-  <si>
-    <t>Manguera1</t>
-  </si>
-  <si>
-    <t>Manguera2</t>
-  </si>
-  <si>
-    <t>Manguera3</t>
-  </si>
-  <si>
-    <t>Elemento4</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Elem1</t>
   </si>
@@ -80,12 +59,6 @@
     <t>Mang3</t>
   </si>
   <si>
-    <t>Manguera4</t>
-  </si>
-  <si>
-    <t>Elemento5</t>
-  </si>
-  <si>
     <t>Mang5</t>
   </si>
   <si>
@@ -132,6 +105,12 @@
   </si>
   <si>
     <t>Elem13</t>
+  </si>
+  <si>
+    <t>Elem5</t>
+  </si>
+  <si>
+    <t>Mang4</t>
   </si>
 </sst>
 </file>
@@ -561,62 +540,62 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -624,37 +603,37 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -662,76 +641,76 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="R5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="S5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="T5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="U5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="V5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="W5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="X5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Y5" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">

--- a/prueba5_excel.xlsx
+++ b/prueba5_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enkross.sharepoint.com/sites/ENKROSSCloud/Proyectos/P00106-ENKROSS (INTERNO 2024)/03_Ingeniería/Desarrollo unifilares/P00106-ENKROSS_PRUEBA3_AUTOMATIZACION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{8A1737B8-D03B-463F-9A03-ED9ED9C11095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9752F83B-650F-4784-ACDF-C93CF4091318}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{8A1737B8-D03B-463F-9A03-ED9ED9C11095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13CA6A9B-CAD5-4B95-802C-616405C3CA46}"/>
   <bookViews>
-    <workbookView xWindow="372" yWindow="1992" windowWidth="28668" windowHeight="14568" xr2:uid="{A51B9455-0DA1-4262-9C8D-5E63C3C80935}"/>
+    <workbookView xWindow="30612" yWindow="-180" windowWidth="30936" windowHeight="16776" xr2:uid="{A51B9455-0DA1-4262-9C8D-5E63C3C80935}"/>
   </bookViews>
   <sheets>
     <sheet name="diagrama1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>Elem1</t>
   </si>
@@ -530,7 +530,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,6 +634,9 @@
       </c>
       <c r="L4" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">

--- a/prueba5_excel.xlsx
+++ b/prueba5_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enkross.sharepoint.com/sites/ENKROSSCloud/Proyectos/P00106-ENKROSS (INTERNO 2024)/03_Ingeniería/Desarrollo unifilares/P00106-ENKROSS_PRUEBA3_AUTOMATIZACION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{8A1737B8-D03B-463F-9A03-ED9ED9C11095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13CA6A9B-CAD5-4B95-802C-616405C3CA46}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{8A1737B8-D03B-463F-9A03-ED9ED9C11095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B74166A9-57F6-4B2A-81A7-8679A64B9E2C}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-180" windowWidth="30936" windowHeight="16776" xr2:uid="{A51B9455-0DA1-4262-9C8D-5E63C3C80935}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A51B9455-0DA1-4262-9C8D-5E63C3C80935}"/>
   </bookViews>
   <sheets>
     <sheet name="diagrama1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
   <si>
     <t>Elem1</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>Mang4</t>
+  </si>
+  <si>
+    <t>Mang13</t>
+  </si>
+  <si>
+    <t>Elem14</t>
   </si>
 </sst>
 </file>
@@ -527,15 +533,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4692FC6F-E8B7-42EA-917E-25410140FE65}">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +570,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,7 +593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,7 +604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -715,14 +721,20 @@
       <c r="Y5" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="Z5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F6" s="3"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="K9" s="3"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="J13" s="3"/>
     </row>
   </sheetData>
